--- a/AttelierCodev2/R_Code/correlation_montant_paye.xlsx
+++ b/AttelierCodev2/R_Code/correlation_montant_paye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CEGEP\420-A51-SF INITIATION À LA FONCTION DE TRAVAIL\420-A51-SF_INITIATION_FONCTION_DE_TRAVAIL\AttelierCodev2\R_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2E0C0B-0BD5-4236-8B02-685823C69412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDECBD8-151A-4D1F-B124-26B7AD52C35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{36119134-1F72-4F06-9622-29D980EBA15A}"/>
+    <workbookView xWindow="-57720" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{FBCCF238-9EC6-48CB-8B6B-5444D1397318}"/>
   </bookViews>
   <sheets>
     <sheet name="correlation_montant_paye" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Variable</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Temps_sn_sin</t>
-  </si>
-  <si>
-    <t>Sexe_assureM</t>
   </si>
   <si>
     <t>Ind_fumeur</t>
@@ -170,9 +167,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,9 +644,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1027,15 +1020,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FAEF25-B437-46A6-A121-6035743553C8}">
-  <dimension ref="A1:B47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA70914-B52E-4C27-ADE1-FD4F3460D1A1}">
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1050,372 +1045,364 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.66088333748837502</v>
+      <c r="B2">
+        <v>0.66088333700000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.58095024288909303</v>
+      <c r="B3">
+        <v>0.58095024299999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.37549274040247899</v>
+      <c r="B4">
+        <v>0.37549273999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.33261557149311299</v>
+      <c r="B5">
+        <v>0.332615571</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.14699903599377701</v>
+      <c r="B6">
+        <v>0.146999036</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.12857245830274</v>
+      <c r="B7">
+        <v>0.128572458</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.118893595377179</v>
+      <c r="B8">
+        <v>0.118893595</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.114183855672831</v>
+      <c r="B9">
+        <v>0.114183856</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.107937920456865</v>
+      <c r="B10">
+        <v>0.10793792000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.101875306473516</v>
+      <c r="B11">
+        <v>0.101875306</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <v>9.6325709571118301E-2</v>
+      <c r="B12">
+        <v>9.6325709999999995E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
-        <v>9.5671690661022005E-2</v>
+      <c r="B13">
+        <v>9.5671691000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
-        <v>9.1407738307669406E-2</v>
+      <c r="B14">
+        <v>9.1407738000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <v>8.26668016470824E-2</v>
+      <c r="B15">
+        <v>8.2666801999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
-        <v>8.0271170787249102E-2</v>
+      <c r="B16">
+        <v>8.0271171000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
-        <v>7.0304204831558498E-2</v>
+      <c r="B17">
+        <v>7.0304204999999995E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
-        <v>5.5417078912809899E-2</v>
+      <c r="B18">
+        <v>5.5417079000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
-        <v>4.2084638119042603E-2</v>
+      <c r="B19">
+        <v>4.2084638000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
-        <v>3.5622403729141702E-2</v>
+      <c r="B20">
+        <v>3.5622404000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <v>2.5896491856101499E-2</v>
+      <c r="B21">
+        <v>2.5896492E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
-        <v>2.2208598732129901E-2</v>
+      <c r="B22">
+        <v>2.2208598999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
-        <v>1.8524830446352399E-2</v>
+      <c r="B23">
+        <v>1.8524829999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
-        <v>1.80841252955607E-2</v>
+      <c r="B24">
+        <v>1.8084125E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
-        <v>1.5793496422343199E-2</v>
+      <c r="B25">
+        <v>1.5793496000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
-        <v>1.5336319204241999E-2</v>
+      <c r="B26">
+        <v>1.5336318999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
-        <v>6.5131383412118504E-3</v>
+      <c r="B27">
+        <v>6.5131379999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
-        <v>-1.2822707279577201E-2</v>
+      <c r="B28">
+        <v>-1.3304551E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
-        <v>-1.3304551448505401E-2</v>
+      <c r="B29">
+        <v>-2.4056451999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
-        <v>-2.4056451676425901E-2</v>
+      <c r="B30">
+        <v>-5.1658784999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
-        <v>-5.1658785065365399E-2</v>
+      <c r="B31">
+        <v>-5.5350125999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
-        <v>-5.5350126260460798E-2</v>
+      <c r="B32">
+        <v>-5.5848156000000003E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
-        <v>-5.58481558687563E-2</v>
+      <c r="B33">
+        <v>-5.7073553999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
-        <v>-5.7073553555838999E-2</v>
+      <c r="B34">
+        <v>-6.1934651E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
-        <v>-6.1934650832628002E-2</v>
+      <c r="B35">
+        <v>-6.2037327000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
-        <v>-6.2037327246044202E-2</v>
+      <c r="B36">
+        <v>-6.3491900000000004E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
-        <v>-6.3491899977941496E-2</v>
+      <c r="B37">
+        <v>-8.8527746000000004E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
-        <v>-8.8527745875197905E-2</v>
+      <c r="B38">
+        <v>-0.10410821000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
-        <v>-0.10410821032676899</v>
+      <c r="B39">
+        <v>-0.10793792000000001</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
-        <v>-0.107363446045927</v>
+      <c r="B40">
+        <v>-0.11103399</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
-        <v>-0.11103399028061001</v>
+      <c r="B41">
+        <v>-0.11560973400000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
-        <v>-0.115609734371173</v>
+      <c r="B42">
+        <v>-0.11651502</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
-        <v>-0.11651502017042201</v>
+      <c r="B43">
+        <v>-0.145702779</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
-        <v>-0.14570277927279901</v>
+      <c r="B44">
+        <v>-0.17730083899999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
-        <v>-0.17730083892481199</v>
+      <c r="B45">
+        <v>-0.23844929600000001</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
-        <v>-0.23844929641165499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1">
-        <v>-0.29778931361501099</v>
+      <c r="B46">
+        <v>-0.29778931400000003</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B47">
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
